--- a/App/Documents/Číselníky.xlsx
+++ b/App/Documents/Číselníky.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\CubeIt_Testing\App\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\CubeIt_Testing\App\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75FEBBB-598E-4FE4-B7C6-27C16A2CBE65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD2BBBE-79A9-461F-BFDD-4F89ACB3347B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2FBDA2C7-5936-426B-B675-4482C1F8B095}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{2FBDA2C7-5936-426B-B675-4482C1F8B095}"/>
   </bookViews>
   <sheets>
     <sheet name="číselník main" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Vampire</t>
   </si>
@@ -158,9 +158,6 @@
     <t>red_window</t>
   </si>
   <si>
-    <t>Typy slotů</t>
-  </si>
-  <si>
     <t>Backpack</t>
   </si>
   <si>
@@ -195,13 +192,28 @@
   </si>
   <si>
     <t>Helmet</t>
+  </si>
+  <si>
+    <t>Runes</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Wearable</t>
+  </si>
+  <si>
+    <t>Typy slotů, název</t>
+  </si>
+  <si>
+    <t>Typy slotů, type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +252,32 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +292,21 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -355,13 +406,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -381,11 +435,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="6" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -698,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE57841-23B3-45E4-BBC0-91228225D55D}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,43 +1009,84 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="10" t="s">
+      <c r="M7" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>44</v>
+      <c r="M8" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
